--- a/_extra/_Audio_Files_/Yashis_Music_list.xlsx
+++ b/_extra/_Audio_Files_/Yashis_Music_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr_Green\OneDrive\Desktop\0_Sum_25\INFO_523\HWs\group_project\Yahis_Suite\Final_org_attempt_mk1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mq/Desktop/INFO523/Herling-Mi/_extra/_Audio_Files_/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92F66267-DB3B-4B28-8800-BD02C72158D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7157CF0D-3DF3-034C-89E7-B59DF7507158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11505" yWindow="2115" windowWidth="24120" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11500" yWindow="2120" windowWidth="24120" windowHeight="18320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Final_Playlist_with_T" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="137">
   <si>
     <t>Song</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Deep &amp; Dramatic</t>
   </si>
   <si>
-    <t>七里香</t>
-  </si>
-  <si>
     <t>Jay Chou</t>
   </si>
   <si>
@@ -73,18 +70,9 @@
     <t>Skinny Love</t>
   </si>
   <si>
-    <t>Birdy</t>
-  </si>
-  <si>
     <t>UK</t>
   </si>
   <si>
-    <t>Yesterday</t>
-  </si>
-  <si>
-    <t>The Beatles</t>
-  </si>
-  <si>
     <t>Classic &amp; Retro</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t>Cyndi Wang</t>
   </si>
   <si>
-    <t>青花瓷</t>
-  </si>
-  <si>
     <t>All Too Well (10 Minute Version)</t>
   </si>
   <si>
@@ -127,39 +112,9 @@
     <t>Ed Sheeran</t>
   </si>
   <si>
-    <t>Rice Fragrance</t>
-  </si>
-  <si>
-    <t>Imagine</t>
-  </si>
-  <si>
-    <t>John Lennon</t>
-  </si>
-  <si>
-    <t>Say Something</t>
-  </si>
-  <si>
-    <t>A Great Big World &amp; Christina Aguilera</t>
-  </si>
-  <si>
-    <t>Waiting for You Till 35</t>
-  </si>
-  <si>
-    <t>Xue Zhiqian</t>
-  </si>
-  <si>
-    <t>You Are My Everything</t>
-  </si>
-  <si>
-    <t>Gummy</t>
-  </si>
-  <si>
     <t>Korea</t>
   </si>
   <si>
-    <t>Only</t>
-  </si>
-  <si>
     <t>Lee Hi</t>
   </si>
   <si>
@@ -184,27 +139,12 @@
     <t>Idina Menzel</t>
   </si>
   <si>
-    <t>The Scientist</t>
-  </si>
-  <si>
-    <t>Coldplay</t>
-  </si>
-  <si>
-    <t>Fool Again</t>
-  </si>
-  <si>
     <t>Westlife</t>
   </si>
   <si>
     <t>Ireland</t>
   </si>
   <si>
-    <t>Hotel California</t>
-  </si>
-  <si>
-    <t>Eagles</t>
-  </si>
-  <si>
     <t>Cool Cool</t>
   </si>
   <si>
@@ -220,21 +160,9 @@
     <t>When You’re Looking Like That</t>
   </si>
   <si>
-    <t>Just the Way You Are</t>
-  </si>
-  <si>
     <t>Bruno Mars</t>
   </si>
   <si>
-    <t>Take on Me</t>
-  </si>
-  <si>
-    <t>A-ha</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
     <t>Dancing Queen</t>
   </si>
   <si>
@@ -244,33 +172,9 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>Take Me Home, Country Roads</t>
-  </si>
-  <si>
-    <t>John Denver</t>
-  </si>
-  <si>
-    <t>Cheri, Cheri Lady</t>
-  </si>
-  <si>
-    <t>Modern Talking</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>If I Let You Go</t>
-  </si>
-  <si>
-    <t>Love Confession</t>
-  </si>
-  <si>
-    <t>All of Me</t>
-  </si>
-  <si>
-    <t>John Legend</t>
-  </si>
-  <si>
     <t>The Nights</t>
   </si>
   <si>
@@ -283,21 +187,6 @@
     <t>Queen of My Heart</t>
   </si>
   <si>
-    <t>All About You</t>
-  </si>
-  <si>
-    <t>Taeyeon</t>
-  </si>
-  <si>
-    <t>Anti-Hero</t>
-  </si>
-  <si>
-    <t>Drivers License</t>
-  </si>
-  <si>
-    <t>Olivia Rodrigo</t>
-  </si>
-  <si>
     <t>Breathe</t>
   </si>
   <si>
@@ -340,30 +229,9 @@
     <t>BIGBANG</t>
   </si>
   <si>
-    <t>Love Poem</t>
-  </si>
-  <si>
     <t>IU</t>
   </si>
   <si>
-    <t>I Will Survive</t>
-  </si>
-  <si>
-    <t>Gloria Gaynor</t>
-  </si>
-  <si>
-    <t>Red Dust Inn</t>
-  </si>
-  <si>
-    <t>World of Our Own</t>
-  </si>
-  <si>
-    <t>Love Me Like You Do</t>
-  </si>
-  <si>
-    <t>Ellie Goulding</t>
-  </si>
-  <si>
     <t>Creep</t>
   </si>
   <si>
@@ -376,15 +244,6 @@
     <t>Chanyeol &amp; Punch</t>
   </si>
   <si>
-    <t>Glimpse of Us</t>
-  </si>
-  <si>
-    <t>Joji</t>
-  </si>
-  <si>
-    <t>Japan/USA</t>
-  </si>
-  <si>
     <t>Still</t>
   </si>
   <si>
@@ -412,27 +271,9 @@
     <t>Talking to the Moon</t>
   </si>
   <si>
-    <t>Swear It Again</t>
-  </si>
-  <si>
-    <t>A Thousand Years</t>
-  </si>
-  <si>
-    <t>Christina Perri</t>
-  </si>
-  <si>
-    <t>Rewrite the Stars</t>
-  </si>
-  <si>
-    <t>Zac Efron &amp; Zendaya</t>
-  </si>
-  <si>
     <t>Soundtrack &amp; OST</t>
   </si>
   <si>
-    <t>Rolling in the Deep</t>
-  </si>
-  <si>
     <t>Shallow</t>
   </si>
   <si>
@@ -457,27 +298,6 @@
     <t>Crush</t>
   </si>
   <si>
-    <t>旅行的意义</t>
-  </si>
-  <si>
-    <t>Cheer Chen</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Reflection</t>
-  </si>
-  <si>
-    <t>Christina Aguilera / Liu Yifei</t>
-  </si>
-  <si>
-    <t>USA / China</t>
-  </si>
-  <si>
-    <t>The Story of Us</t>
-  </si>
-  <si>
     <t>Red Rose</t>
   </si>
   <si>
@@ -517,39 +337,6 @@
     <t>Ashin of Mayday</t>
   </si>
   <si>
-    <t>Too Good at Goodbyes</t>
-  </si>
-  <si>
-    <t>Everything Has Changed</t>
-  </si>
-  <si>
-    <t>Taylor Swift ft. Ed Sheeran</t>
-  </si>
-  <si>
-    <t>USA/UK</t>
-  </si>
-  <si>
-    <t>风吹麦浪</t>
-  </si>
-  <si>
-    <t>Li Jian &amp; Sun Li</t>
-  </si>
-  <si>
-    <t>Enchanted</t>
-  </si>
-  <si>
-    <t>My Heart Will Go On</t>
-  </si>
-  <si>
-    <t>Celine Dion</t>
-  </si>
-  <si>
-    <t>Angels</t>
-  </si>
-  <si>
-    <t>Robbie Williams</t>
-  </si>
-  <si>
     <t>Forget Love Water</t>
   </si>
   <si>
@@ -598,51 +385,6 @@
     <t>Japan</t>
   </si>
   <si>
-    <t>Flying Without Wings</t>
-  </si>
-  <si>
-    <t>Someone You Loved</t>
-  </si>
-  <si>
-    <t>Lewis Capaldi</t>
-  </si>
-  <si>
-    <t>Crescent Bay</t>
-  </si>
-  <si>
-    <t>F.I.R.</t>
-  </si>
-  <si>
-    <t>Bryan Adams</t>
-  </si>
-  <si>
-    <t>Fulfill</t>
-  </si>
-  <si>
-    <t>Yoga Lin</t>
-  </si>
-  <si>
-    <t>Taylor Swift ft. Colbie Caillat</t>
-  </si>
-  <si>
-    <t>Suffering Person</t>
-  </si>
-  <si>
-    <t>Ren Ran</t>
-  </si>
-  <si>
-    <t>Can or Not</t>
-  </si>
-  <si>
-    <t>Zhang Zhi Hao</t>
-  </si>
-  <si>
-    <t>Dancing On My Own</t>
-  </si>
-  <si>
-    <t>Calum Scott</t>
-  </si>
-  <si>
     <t>Say You Won't Let Go</t>
   </si>
   <si>
@@ -671,51 +413,6 @@
   </si>
   <si>
     <t>Into the Unknown</t>
-  </si>
-  <si>
-    <t>Torn</t>
-  </si>
-  <si>
-    <t>Natalie Imbruglia</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>My Love</t>
-  </si>
-  <si>
-    <t>Good Day</t>
-  </si>
-  <si>
-    <t>What Makes You Beautiful</t>
-  </si>
-  <si>
-    <t>Exile</t>
-  </si>
-  <si>
-    <t>Taylor Swift ft. Bon Iver</t>
-  </si>
-  <si>
-    <t>Anne-Marie</t>
-  </si>
-  <si>
-    <t>Slow Dancing in the Dark</t>
-  </si>
-  <si>
-    <t>Begin Again</t>
-  </si>
-  <si>
-    <t>Love Scenario</t>
-  </si>
-  <si>
-    <t>iKON</t>
-  </si>
-  <si>
-    <t>For the First Time in Forever</t>
-  </si>
-  <si>
-    <t>Kristen Bell &amp; Idina Menzel</t>
   </si>
   <si>
     <t>My Sea</t>
@@ -740,7 +437,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -892,7 +589,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -918,9 +615,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2053,23 +1747,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:D3"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.28515625" style="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" customHeight="1">
+    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2083,7 +1777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1">
+    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2097,1726 +1791,844 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="6" t="s">
+    <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="6" t="s">
+    <row r="18" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="D18" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="8" t="s">
+      <c r="D33" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="D35" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D38" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="8" t="s">
+      <c r="D46" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="6" t="s">
+    <row r="55" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="C56" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="D58" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" s="8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A112" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A115" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="9">
-        <v>2002</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A120" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A121" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A122" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A123" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
